--- a/biology/Zoologie/Berger_blanc_suisse/Berger_blanc_suisse.xlsx
+++ b/biology/Zoologie/Berger_blanc_suisse/Berger_blanc_suisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le berger blanc suisse (ou parfois appelé berger blanc), est un chien de type berger allemand, ayant la fourrure de couleur blanche[1].
+Le berger blanc suisse (ou parfois appelé berger blanc), est un chien de type berger allemand, ayant la fourrure de couleur blanche.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La couleur blanche est une couleur typique et ancienne des chiens de berger. Au départ de l'élevage du berger blanc, la disposition à avoir des poils blancs était même très répandue. Auparavant, le berger blanc suisse était appelé berger suisse, mais en raison de la couleur blanche de sa fourrure, son nom est devenu « berger blanc suisse »[réf. nécessaire].
 En 1899, le premier berger allemand a été enregistré dans le livre d'origine du club de bergers allemands (SV). On sait que le grand-père de ce chien nommé Horand von Grafath était un chien de berger tout blanc appelé Greif.
